--- a/SimulationStudyData/Model2/SimCase9_zsim_SimRun3.xlsx
+++ b/SimulationStudyData/Model2/SimCase9_zsim_SimRun3.xlsx
@@ -353,7 +353,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -368,7 +368,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -388,7 +388,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -398,7 +398,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -413,7 +413,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -423,7 +423,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -433,7 +433,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -448,12 +448,12 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -468,12 +468,12 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -483,12 +483,12 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -503,12 +503,12 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -518,7 +518,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -533,7 +533,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -568,7 +568,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -583,17 +583,17 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -608,7 +608,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -618,12 +618,12 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -633,12 +633,12 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -668,7 +668,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -678,7 +678,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -688,12 +688,12 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -703,27 +703,27 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -763,17 +763,17 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -783,7 +783,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -803,17 +803,17 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -823,7 +823,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -848,12 +848,12 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -868,12 +868,12 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -883,17 +883,17 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -903,17 +903,17 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -928,7 +928,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -963,12 +963,12 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -978,7 +978,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -988,7 +988,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -1008,12 +1008,12 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1028,12 +1028,12 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1043,17 +1043,17 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -1073,12 +1073,12 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -1088,17 +1088,17 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1143,7 +1143,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -1153,7 +1153,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -1183,7 +1183,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -1193,7 +1193,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -1203,22 +1203,22 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -1228,7 +1228,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -1273,7 +1273,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -1283,7 +1283,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -1293,7 +1293,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -1313,7 +1313,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -1328,7 +1328,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -1338,12 +1338,12 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
